--- a/Jashera 2024/меню.xlsx
+++ b/Jashera 2024/меню.xlsx
@@ -4,144 +4,158 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Меню" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>Батон, г</t>
   </si>
   <si>
-    <t>Колбаса</t>
-  </si>
-  <si>
-    <t>Сыр</t>
-  </si>
-  <si>
-    <t>Печенье</t>
-  </si>
-  <si>
-    <t>Чай</t>
-  </si>
-  <si>
-    <t>Крупа овсяная</t>
-  </si>
-  <si>
-    <t>Яблоки</t>
-  </si>
-  <si>
-    <t>Макароны</t>
-  </si>
-  <si>
-    <t>Тущенка говяжья</t>
-  </si>
-  <si>
-    <t>Огурцы</t>
-  </si>
-  <si>
-    <t>Помидоры</t>
-  </si>
-  <si>
-    <t>Фасоль конс.</t>
-  </si>
-  <si>
-    <t>Картофель</t>
-  </si>
-  <si>
-    <t>Морковь</t>
-  </si>
-  <si>
-    <t>Лук</t>
-  </si>
-  <si>
-    <t>Рис</t>
-  </si>
-  <si>
-    <t>Крупа пшенная</t>
-  </si>
-  <si>
-    <t>Сгущенка</t>
-  </si>
-  <si>
-    <t>Греча</t>
-  </si>
-  <si>
-    <t>Свекла</t>
-  </si>
-  <si>
-    <t>Горбуша</t>
-  </si>
-  <si>
-    <t>Пшеничка</t>
-  </si>
-  <si>
-    <t>Смесь компотная</t>
-  </si>
-  <si>
-    <t>Вермишель</t>
-  </si>
-  <si>
-    <t>Сыр плав.</t>
-  </si>
-  <si>
-    <t>Горох сух.</t>
-  </si>
-  <si>
-    <t>Горох конс.</t>
-  </si>
-  <si>
-    <t>Чеснок</t>
-  </si>
-  <si>
-    <t>Крабовые палочки</t>
-  </si>
-  <si>
-    <t>Кукуруза конс.</t>
-  </si>
-  <si>
-    <t>Кетчуп</t>
-  </si>
-  <si>
-    <t>Майонез</t>
-  </si>
-  <si>
-    <t>Сырный соус</t>
-  </si>
-  <si>
-    <t>Чесночный соус</t>
-  </si>
-  <si>
-    <t>Соевый соус</t>
-  </si>
-  <si>
-    <t>Лимоны</t>
-  </si>
-  <si>
-    <t>Чернослив</t>
-  </si>
-  <si>
-    <t>Изюм</t>
-  </si>
-  <si>
-    <t>Курага</t>
-  </si>
-  <si>
-    <t>Джемы</t>
+    <t>Колбаса, г</t>
+  </si>
+  <si>
+    <t>Сыр, г</t>
+  </si>
+  <si>
+    <t>Печенье, г</t>
+  </si>
+  <si>
+    <t>Чай, г</t>
+  </si>
+  <si>
+    <t>Крупа овсяная, г</t>
+  </si>
+  <si>
+    <t>Яблоки, г</t>
+  </si>
+  <si>
+    <t>Макароны, г</t>
+  </si>
+  <si>
+    <t>Тущенка говяжья, б</t>
+  </si>
+  <si>
+    <t>Огурцы, г</t>
+  </si>
+  <si>
+    <t>Помидоры, г</t>
+  </si>
+  <si>
+    <t>Фасоль конс., б</t>
+  </si>
+  <si>
+    <t>Картофель, г</t>
+  </si>
+  <si>
+    <t>Морковь, г</t>
+  </si>
+  <si>
+    <t>Лук, г</t>
+  </si>
+  <si>
+    <t>Рис, г</t>
+  </si>
+  <si>
+    <t>Крупа пшенная, г</t>
+  </si>
+  <si>
+    <t>Сгущенка, б</t>
+  </si>
+  <si>
+    <t>Греча, г</t>
+  </si>
+  <si>
+    <t>Свекла, г</t>
+  </si>
+  <si>
+    <t>Горбуша, б</t>
+  </si>
+  <si>
+    <t>Пшеничка, г</t>
+  </si>
+  <si>
+    <t>Смесь компотная, г</t>
+  </si>
+  <si>
+    <t>Вермишель, г</t>
+  </si>
+  <si>
+    <t>Сыр плав., г</t>
+  </si>
+  <si>
+    <t>Горох сух., г</t>
+  </si>
+  <si>
+    <t>Горох конс., б</t>
+  </si>
+  <si>
+    <t>Чеснок, шт</t>
+  </si>
+  <si>
+    <t>Крабовые палочки, уп</t>
+  </si>
+  <si>
+    <t>Кукуруза конс., б</t>
+  </si>
+  <si>
+    <t>Кетчуп, уп</t>
+  </si>
+  <si>
+    <t>Майонез, уп</t>
+  </si>
+  <si>
+    <t>Сырный соус, уп</t>
+  </si>
+  <si>
+    <t>Чесночный соус, уп</t>
+  </si>
+  <si>
+    <t>Соевый соус, л</t>
+  </si>
+  <si>
+    <t>Лимоны, шт</t>
+  </si>
+  <si>
+    <t>Чернослив, г</t>
+  </si>
+  <si>
+    <t>Изюм, г</t>
+  </si>
+  <si>
+    <t>Курага, г</t>
+  </si>
+  <si>
+    <t>Джемы, уп</t>
   </si>
   <si>
     <t>Сахар</t>
@@ -150,10 +164,64 @@
     <t>Соль</t>
   </si>
   <si>
+    <t>Сухарики, г</t>
+  </si>
+  <si>
+    <t>Ребра, г</t>
+  </si>
+  <si>
+    <t>Масло подсолн.</t>
+  </si>
+  <si>
+    <t>Губки</t>
+  </si>
+  <si>
+    <t>Тряпки</t>
+  </si>
+  <si>
+    <t>Бумаж. Полотенца</t>
+  </si>
+  <si>
+    <t>Туалетная бумага</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
     <t>Перекус</t>
   </si>
   <si>
-    <t>.1300</t>
+    <t>3 банки</t>
+  </si>
+  <si>
+    <t>10 шт.</t>
+  </si>
+  <si>
+    <t>1 банка</t>
+  </si>
+  <si>
+    <t>5 уп.</t>
+  </si>
+  <si>
+    <t>3 уп.</t>
+  </si>
+  <si>
+    <t>1 литр</t>
+  </si>
+  <si>
+    <t>6 шт.</t>
+  </si>
+  <si>
+    <t>6 уп.</t>
+  </si>
+  <si>
+    <t>3 кг</t>
+  </si>
+  <si>
+    <t>1 кг</t>
+  </si>
+  <si>
+    <t>3 бутылки</t>
   </si>
   <si>
     <t>Ужин</t>
@@ -163,26 +231,47 @@
   </si>
   <si>
     <t>Обед</t>
+  </si>
+  <si>
+    <t>4 шт.</t>
+  </si>
+  <si>
+    <t>4 уп.</t>
+  </si>
+  <si>
+    <t>1 уп.</t>
+  </si>
+  <si>
+    <t>2 шт.</t>
+  </si>
+  <si>
+    <t>2 банки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="181" formatCode="dd\.mmm"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,145 +739,157 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1365,10 +1466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR22"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1383,7 +1484,7 @@
     <col min="19" max="19" width="14.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:44">
+    <row r="1" spans="3:52">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1510,16 +1611,40 @@
       <c r="AR1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="AS1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
         <v>45413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
+      <c r="C2" s="3">
+        <v>1300</v>
       </c>
       <c r="D2">
         <v>800</v>
@@ -1528,162 +1653,1184 @@
         <v>600</v>
       </c>
       <c r="F2">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45413</v>
+      </c>
+      <c r="C3">
+        <v>700</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+      <c r="F3">
+        <v>700</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1800</v>
+      </c>
+      <c r="I3">
+        <v>4500</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3">
+        <v>100</v>
+      </c>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AU3" s="4"/>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45414</v>
+      </c>
+      <c r="F4">
+        <v>700</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>2000</v>
+      </c>
+      <c r="K4">
+        <v>1300</v>
+      </c>
+      <c r="L4">
+        <v>1500</v>
+      </c>
+      <c r="M4">
+        <v>1500</v>
+      </c>
+      <c r="P4">
+        <v>300</v>
+      </c>
+      <c r="Q4">
+        <v>300</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AU4" s="4"/>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45414</v>
+      </c>
+      <c r="F5">
+        <v>700</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>1600</v>
+      </c>
+      <c r="N5">
+        <v>800</v>
+      </c>
+      <c r="O5">
+        <v>1500</v>
+      </c>
+      <c r="P5">
+        <v>400</v>
+      </c>
+      <c r="Q5">
+        <v>400</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AU5" s="4"/>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45414</v>
+      </c>
+      <c r="C6">
+        <v>700</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>700</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>4500</v>
+      </c>
+      <c r="S6">
+        <v>1400</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>1000</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="4"/>
+      <c r="AN6">
+        <v>100</v>
+      </c>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AU6" s="4"/>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45415</v>
+      </c>
+      <c r="F7">
+        <v>700</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>1300</v>
+      </c>
+      <c r="P7">
+        <v>400</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="U7">
+        <v>1400</v>
+      </c>
+      <c r="V7">
+        <v>750</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AU7" s="4"/>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45415</v>
+      </c>
+      <c r="F8">
+        <v>700</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>2000</v>
+      </c>
+      <c r="K8">
+        <v>1600</v>
+      </c>
+      <c r="O8">
+        <v>1500</v>
+      </c>
+      <c r="P8">
+        <v>400</v>
+      </c>
+      <c r="Q8">
+        <v>400</v>
+      </c>
+      <c r="W8">
+        <v>900</v>
+      </c>
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AU8" s="4"/>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45415</v>
+      </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9">
+        <v>700</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>1300</v>
+      </c>
+      <c r="Y9">
+        <v>1000</v>
+      </c>
+      <c r="AD9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="4"/>
+      <c r="AO9">
+        <v>100</v>
+      </c>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AU9" s="4"/>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45416</v>
+      </c>
+      <c r="F10">
+        <v>700</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>1300</v>
+      </c>
+      <c r="N10">
+        <v>1200</v>
+      </c>
+      <c r="P10">
+        <v>300</v>
+      </c>
+      <c r="Q10">
+        <v>300</v>
+      </c>
+      <c r="R10">
+        <v>1500</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10">
+        <v>400</v>
+      </c>
+      <c r="AU10" s="4"/>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45416</v>
+      </c>
+      <c r="F11">
+        <v>700</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>1600</v>
+      </c>
+      <c r="O11">
+        <v>1500</v>
+      </c>
+      <c r="P11">
+        <v>400</v>
+      </c>
+      <c r="Q11">
+        <v>400</v>
+      </c>
+      <c r="U11">
+        <v>1500</v>
+      </c>
+      <c r="Z11">
+        <v>400</v>
+      </c>
+      <c r="AD11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AU11" s="4"/>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45421</v>
+      </c>
+      <c r="F13">
+        <v>700</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>1300</v>
+      </c>
+      <c r="O13">
+        <v>1500</v>
+      </c>
+      <c r="P13">
+        <v>400</v>
+      </c>
+      <c r="Q13">
+        <v>400</v>
+      </c>
+      <c r="AA13">
+        <v>1200</v>
+      </c>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45421</v>
+      </c>
+      <c r="C14">
+        <v>700</v>
+      </c>
+      <c r="D14">
+        <v>600</v>
+      </c>
+      <c r="E14">
+        <v>600</v>
+      </c>
+      <c r="F14">
+        <v>700</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>1800</v>
+      </c>
+      <c r="I14">
+        <v>4500</v>
+      </c>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14">
+        <v>100</v>
+      </c>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45422</v>
+      </c>
+      <c r="F15">
+        <v>700</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>1300</v>
+      </c>
+      <c r="L15">
+        <v>1500</v>
+      </c>
+      <c r="M15">
+        <v>1500</v>
+      </c>
+      <c r="P15">
+        <v>300</v>
+      </c>
+      <c r="Q15">
+        <v>300</v>
+      </c>
+      <c r="U15">
+        <v>1500</v>
+      </c>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45422</v>
+      </c>
+      <c r="F16">
+        <v>700</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>1600</v>
+      </c>
+      <c r="O16">
+        <v>1500</v>
+      </c>
+      <c r="P16">
+        <v>400</v>
+      </c>
+      <c r="Q16">
+        <v>400</v>
+      </c>
+      <c r="R16">
+        <v>1500</v>
+      </c>
+      <c r="AB16">
+        <v>1000</v>
+      </c>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AS16">
+        <v>400</v>
+      </c>
+      <c r="AT16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45422</v>
+      </c>
+      <c r="C17">
+        <v>700</v>
+      </c>
+      <c r="D17">
+        <v>600</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17">
+        <v>700</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>4500</v>
+      </c>
+      <c r="S17">
+        <v>1400</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AN17">
+        <v>100</v>
+      </c>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45423</v>
+      </c>
+      <c r="F18">
+        <v>700</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18">
+        <v>1300</v>
+      </c>
+      <c r="P18">
+        <v>400</v>
+      </c>
+      <c r="Q18">
+        <v>300</v>
+      </c>
+      <c r="V18">
+        <v>750</v>
+      </c>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45423</v>
+      </c>
+      <c r="F19">
+        <v>700</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>1600</v>
+      </c>
+      <c r="O19">
+        <v>1500</v>
+      </c>
+      <c r="P19">
+        <v>400</v>
+      </c>
+      <c r="Q19">
+        <v>400</v>
+      </c>
+      <c r="W19">
+        <v>900</v>
+      </c>
+      <c r="X19">
+        <v>1300</v>
+      </c>
+      <c r="Y19">
+        <v>1000</v>
+      </c>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45423</v>
+      </c>
+      <c r="C20">
+        <v>700</v>
+      </c>
+      <c r="D20">
+        <v>600</v>
+      </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
+      <c r="F20">
+        <v>700</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AO20">
+        <v>100</v>
+      </c>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45424</v>
+      </c>
+      <c r="F21">
+        <v>700</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>1300</v>
+      </c>
+      <c r="L21">
+        <v>700</v>
+      </c>
+      <c r="P21">
+        <v>300</v>
+      </c>
+      <c r="Q21">
+        <v>300</v>
+      </c>
+      <c r="R21">
+        <v>2000</v>
+      </c>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45424</v>
+      </c>
+      <c r="F22">
+        <v>700</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="K22">
+        <v>1600</v>
+      </c>
+      <c r="N22">
+        <v>800</v>
+      </c>
+      <c r="O22">
+        <v>1500</v>
+      </c>
+      <c r="P22">
+        <v>400</v>
+      </c>
+      <c r="Q22">
+        <v>400</v>
+      </c>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="AC2:AC11"/>
+    <mergeCell ref="AC13:AC22"/>
+    <mergeCell ref="AD2:AD11"/>
+    <mergeCell ref="AD13:AD22"/>
+    <mergeCell ref="AF2:AF11"/>
+    <mergeCell ref="AG2:AG11"/>
+    <mergeCell ref="AG13:AG22"/>
+    <mergeCell ref="AH2:AH11"/>
+    <mergeCell ref="AH13:AH22"/>
+    <mergeCell ref="AI2:AI11"/>
+    <mergeCell ref="AI13:AI22"/>
+    <mergeCell ref="AJ2:AJ11"/>
+    <mergeCell ref="AJ13:AJ22"/>
+    <mergeCell ref="AK2:AK11"/>
+    <mergeCell ref="AL2:AL11"/>
+    <mergeCell ref="AL13:AL22"/>
+    <mergeCell ref="AP2:AP11"/>
+    <mergeCell ref="AP13:AP22"/>
+    <mergeCell ref="AQ2:AQ11"/>
+    <mergeCell ref="AQ13:AQ22"/>
+    <mergeCell ref="AR2:AR11"/>
+    <mergeCell ref="AU2:AU11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:A52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="1">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45424</v>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Jashera 2024/меню.xlsx
+++ b/Jashera 2024/меню.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Text\Lab-processings\Jashera 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Lab-processings\Jashera 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -277,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -311,12 +311,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -325,20 +340,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2142,66 +2166,73 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A54" sqref="A1:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" hidden="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
         <v>3400</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>2100</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <f>C2+D2-B2</f>
         <v>5500</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" hidden="1">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
         <v>2600</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>1800</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F45" si="0">C3+D3-B3</f>
         <v>4400</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2343,37 +2374,41 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" hidden="1">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
         <v>1500</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>2200</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
         <v>2000</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" hidden="1">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
         <v>1500</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>1500</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>2000</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2405,37 +2440,41 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" hidden="1">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
         <v>2200</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>2600</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
         <v>2000</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:7" hidden="1">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
         <v>2100</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>2500</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>3000</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2509,21 +2548,23 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" hidden="1">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
         <v>750</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>750</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2575,21 +2616,23 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" hidden="1">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5">
         <v>400</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2625,39 +2668,43 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7" hidden="1">
+      <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C28">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+    <row r="29" spans="1:7" hidden="1">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>4</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2679,57 +2726,63 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" hidden="1">
+      <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" hidden="1">
+      <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" hidden="1">
+      <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2763,113 +2816,124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" hidden="1">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5">
         <v>1</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:7" hidden="1">
+      <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>1000</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
         <v>5</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" hidden="1">
+      <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5">
         <v>300</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>300</v>
       </c>
-      <c r="F38">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" hidden="1">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C39">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5">
         <v>300</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>300</v>
       </c>
-      <c r="F39">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" hidden="1">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5">
         <v>300</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>300</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7" hidden="1">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C41">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5">
         <v>6</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>4</v>
       </c>
-      <c r="F41">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2901,21 +2965,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7" hidden="1">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C44">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5">
         <v>400</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>800</v>
       </c>
-      <c r="F44">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2971,44 +3037,61 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:7" hidden="1">
+      <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F51">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:7" hidden="1">
+      <c r="A52" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G52" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:7" hidden="1">
+      <c r="A53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F53">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:7" hidden="1">
+      <c r="A54" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F54">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3098,11 +3181,12 @@
   </sheetData>
   <autoFilter ref="B1:G54">
     <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <filter val="на вторую"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Jashera 2024/меню.xlsx
+++ b/Jashera 2024/меню.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Text\Lab-processings\Jashera 2024\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="9120" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Меню" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$B$1:$G$54</definedName>
     <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
   <si>
     <t>Батон, г</t>
   </si>
@@ -206,30 +202,57 @@
     <t>Обед</t>
   </si>
   <si>
+    <t>Первая</t>
+  </si>
+  <si>
+    <t>Вторая</t>
+  </si>
+  <si>
     <t>Закуплено</t>
   </si>
   <si>
+    <t>Докупать</t>
+  </si>
+  <si>
+    <t>Транш</t>
+  </si>
+  <si>
+    <t>На первую</t>
+  </si>
+  <si>
+    <t>на вторую</t>
+  </si>
+  <si>
     <t>Горбуша, г</t>
   </si>
   <si>
     <t>Лимоны, г</t>
   </si>
   <si>
+    <t>Специи в ассортименте</t>
+  </si>
+  <si>
+    <t>Корица</t>
+  </si>
+  <si>
+    <t>гвоздика</t>
+  </si>
+  <si>
+    <t>Пюре,карт.</t>
+  </si>
+  <si>
+    <t>Мармелад,г</t>
+  </si>
+  <si>
+    <t>Икра кабачковая,г</t>
+  </si>
+  <si>
+    <t>Сушки</t>
+  </si>
+  <si>
     <t>Апельсины,г</t>
   </si>
   <si>
-    <t>Икра кабачковая,г</t>
-  </si>
-  <si>
-    <t>Мармелад,г</t>
-  </si>
-  <si>
-    <t>Пюре,карт.</t>
-  </si>
-  <si>
-    <t>Сушки</t>
-  </si>
-  <si>
     <t>Сухофрукты</t>
   </si>
   <si>
@@ -243,43 +266,20 @@
   </si>
   <si>
     <t>Ветчина туш.</t>
-  </si>
-  <si>
-    <t>Первая</t>
-  </si>
-  <si>
-    <t>Вторая</t>
-  </si>
-  <si>
-    <t>Докупать</t>
-  </si>
-  <si>
-    <t>на вторую</t>
-  </si>
-  <si>
-    <t>На первую</t>
-  </si>
-  <si>
-    <t>Специи в ассортименте</t>
-  </si>
-  <si>
-    <t>Корица</t>
-  </si>
-  <si>
-    <t>гвоздика</t>
-  </si>
-  <si>
-    <t>Транш</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,7 +291,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -302,16 +301,346 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -319,9 +648,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -329,171 +900,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -504,7 +1006,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -532,47 +1034,161 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -593,7 +1209,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -865,32 +1481,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="13.712962962963" customWidth="1"/>
+    <col min="10" max="10" width="9.57407407407407" customWidth="1"/>
+    <col min="11" max="11" width="15.712962962963" customWidth="1"/>
+    <col min="13" max="13" width="10.287037037037" customWidth="1"/>
+    <col min="14" max="14" width="11.712962962963" customWidth="1"/>
+    <col min="15" max="15" width="9.57407407407407" customWidth="1"/>
+    <col min="19" max="19" width="14.287037037037" customWidth="1"/>
+    <col min="30" max="30" width="13.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="3:52">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1023,13 +1639,13 @@
       <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AX1" t="s">
@@ -1038,18 +1654,18 @@
       <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>45413</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1300</v>
       </c>
       <c r="D2">
@@ -1104,11 +1720,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>45413</v>
       </c>
       <c r="C3">
@@ -1136,11 +1752,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>45414</v>
       </c>
       <c r="F4">
@@ -1168,11 +1784,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>45414</v>
       </c>
       <c r="F5">
@@ -1197,11 +1813,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>45414</v>
       </c>
       <c r="C6">
@@ -1235,11 +1851,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>45415</v>
       </c>
       <c r="F7">
@@ -1264,11 +1880,11 @@
         <v>750</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>45415</v>
       </c>
       <c r="F8">
@@ -1296,11 +1912,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>45415</v>
       </c>
       <c r="C9">
@@ -1334,11 +1950,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:45">
       <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>45416</v>
       </c>
       <c r="F10">
@@ -1366,11 +1982,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>45416</v>
       </c>
       <c r="F11">
@@ -1398,11 +2014,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:45">
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>45421</v>
       </c>
       <c r="F13">
@@ -1457,11 +2073,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>45421</v>
       </c>
       <c r="C14">
@@ -1489,11 +2105,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>45422</v>
       </c>
       <c r="F15">
@@ -1521,11 +2137,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:46">
+      <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>45422</v>
       </c>
       <c r="F16">
@@ -1559,11 +2175,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>45422</v>
       </c>
       <c r="C17">
@@ -1594,11 +2210,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:22">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>45423</v>
       </c>
       <c r="F18">
@@ -1623,11 +2239,11 @@
         <v>750</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>45423</v>
       </c>
       <c r="F19">
@@ -1658,11 +2274,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>45423</v>
       </c>
       <c r="C20">
@@ -1687,11 +2303,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:38">
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>45424</v>
       </c>
       <c r="F21">
@@ -1715,24 +2331,24 @@
       <c r="R21">
         <v>2000</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="2">
         <v>3</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="2">
         <v>2</v>
       </c>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-    </row>
-    <row r="22" spans="1:47">
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>45424</v>
       </c>
       <c r="F22">
@@ -1760,9 +2376,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="2:47">
       <c r="B25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <f>SUM(C2:C11)</f>
@@ -1945,9 +2561,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="2:47">
       <c r="B26" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <f>SUM(C13:C22)</f>
@@ -2132,44 +2748,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.8518518518519" customWidth="1"/>
+    <col min="2" max="2" width="10.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="14.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" hidden="1" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2184,10 +2801,10 @@
         <v>5500</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2819,7 @@
         <v>4400</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2222,7 +2839,7 @@
         <v>1800</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2243,7 +2860,7 @@
         <v>7000</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2264,7 +2881,7 @@
         <v>800</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2285,7 +2902,7 @@
         <v>1600</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2305,7 +2922,7 @@
         <v>8000</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2326,10 +2943,10 @@
         <v>4000</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2960,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" hidden="1" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2357,10 +2974,10 @@
         <v>2000</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:7">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2374,11 +2991,11 @@
         <v>2000</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1">
-      <c r="A13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -2391,7 +3008,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" hidden="1" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2405,7 +3022,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" hidden="1" spans="1:7">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2419,11 +3036,11 @@
         <v>2000</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -2436,7 +3053,7 @@
         <v>3000</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2457,7 +3074,7 @@
         <v>2000</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2478,10 +3095,10 @@
         <v>1000</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2495,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2509,7 +3126,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" hidden="1" spans="1:7">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2524,12 +3141,12 @@
         <v>1500</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1">
-      <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>4000</v>
@@ -2558,10 +3175,10 @@
         <v>1000</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2575,7 +3192,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" hidden="1" spans="1:7">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2590,10 +3207,10 @@
         <v>400</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2622,10 +3239,10 @@
         <v>1000</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2640,10 +3257,10 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:7">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2658,7 +3275,7 @@
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2676,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2694,10 +3311,10 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2712,10 +3329,10 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2730,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:6">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2748,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" hidden="1" spans="1:6">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2763,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2778,12 +3395,12 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B37">
         <v>1000</v>
@@ -2798,10 +3415,10 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:7">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2816,10 +3433,10 @@
         <v>600</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:7">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2834,10 +3451,10 @@
         <v>600</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:7">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2852,10 +3469,10 @@
         <v>600</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:7">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2870,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:4">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2887,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" hidden="1" spans="1:4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2901,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2916,7 +3533,7 @@
         <v>1200</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2934,11 +3551,11 @@
         <v>1000</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1">
-      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:4">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B46">
@@ -2951,145 +3568,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" hidden="1" spans="1:1">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
-      <c r="A48" s="1" t="s">
+    <row r="48" hidden="1" spans="1:1">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
-      <c r="A49" s="4" t="s">
+    <row r="49" hidden="1" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" hidden="1" spans="1:1">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
+    <row r="51" hidden="1" spans="1:7">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B56">
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4" t="s">
-        <v>59</v>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B57">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4" t="s">
-        <v>58</v>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B58">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4" t="s">
-        <v>61</v>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B59">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4" t="s">
-        <v>57</v>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B60">
         <v>8000</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4" t="s">
-        <v>62</v>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B61">
         <v>4000</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4" t="s">
-        <v>63</v>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B62">
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="4" t="s">
-        <v>64</v>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B63">
         <v>8450</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="4" t="s">
-        <v>65</v>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B64">
         <v>4550</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>66</v>
+      <c r="A65" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B65">
         <v>3250</v>
@@ -3098,11 +3715,165 @@
   </sheetData>
   <autoFilter ref="B1:G54">
     <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <filter val="на вторую"/>
+      </filters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1800</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>7000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>8000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>